--- a/ref/obs_clin_explore.xlsx
+++ b/ref/obs_clin_explore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\cdc_als4m\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BDA6FA-E443-463C-B360-21750858431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B30A12-DB27-4CB0-B48E-720DE8F04349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sketchpad" sheetId="1" r:id="rId1"/>
@@ -2294,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A48:C448"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6965,8 +6965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
